--- a/data-raw/_raw/vn/2019/rd_20190820-phen.xlsx
+++ b/data-raw/_raw/vn/2019/rd_20190820-phen.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -55,19 +55,22 @@
     <t>What: Plant phenology</t>
   </si>
   <si>
-    <t>stage_Vx</t>
-  </si>
-  <si>
     <t>plht_cm</t>
   </si>
   <si>
     <t>Collected by: Wyatt</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes: Some phenology areas are in funky parts of C4 plots. </t>
+    <t>When: 8/20/2019</t>
   </si>
   <si>
-    <t>When: 8/20/2019</t>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Notes: Some phenology areas are in funky parts of C4 plots. Was wrong, corrected on Dec 17 2019</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -495,17 +498,17 @@
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -537,13 +540,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>6</v>
@@ -576,8 +579,8 @@
         <v>259</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="11">
-        <v>3</v>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H7" s="11">
         <v>19</v>
@@ -604,8 +607,8 @@
         <v>243</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="11">
-        <v>3</v>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="11">
         <v>19</v>
@@ -632,8 +635,8 @@
         <v>249</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="11">
-        <v>3</v>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="11">
         <v>19</v>
@@ -664,8 +667,8 @@
         <v>269</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18">
-        <v>3</v>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="11">
         <v>19</v>
@@ -692,8 +695,8 @@
         <v>271</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18">
-        <v>3</v>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="11">
         <v>19</v>
@@ -720,8 +723,8 @@
         <v>262</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18">
-        <v>3</v>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="11">
         <v>19</v>
@@ -752,8 +755,8 @@
         <v>279</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18">
-        <v>3</v>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H13" s="11">
         <v>19</v>
@@ -780,8 +783,8 @@
         <v>269</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18">
-        <v>3</v>
+      <c r="G14" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H14" s="11">
         <v>19</v>
@@ -808,8 +811,8 @@
         <v>266</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18">
-        <v>3</v>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="11">
         <v>19</v>
@@ -840,8 +843,8 @@
         <v>257</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="18">
-        <v>3</v>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H16" s="11">
         <v>19</v>
@@ -868,8 +871,8 @@
         <v>253</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="18">
-        <v>3</v>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H17" s="11">
         <v>19</v>
@@ -896,8 +899,8 @@
         <v>262</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="18">
-        <v>3</v>
+      <c r="G18" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H18" s="11">
         <v>19</v>
@@ -928,8 +931,8 @@
         <v>254</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>3</v>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="11">
         <v>19</v>
@@ -956,8 +959,8 @@
         <v>262</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="18">
-        <v>3</v>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="11">
         <v>19</v>
@@ -983,8 +986,8 @@
         <v>257</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="18">
-        <v>3</v>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -1014,8 +1017,8 @@
         <v>260</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="18">
-        <v>3</v>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="11">
         <v>19</v>
@@ -1041,8 +1044,8 @@
         <v>242</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="18">
-        <v>3</v>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H23" s="11">
         <v>19</v>
@@ -1068,8 +1071,8 @@
         <v>254</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="18">
-        <v>3</v>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H24" s="11">
         <v>19</v>
@@ -1099,8 +1102,8 @@
         <v>252</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="18">
-        <v>3</v>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H25" s="11">
         <v>19</v>
@@ -1126,8 +1129,8 @@
         <v>249</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="18">
-        <v>3</v>
+      <c r="G26" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="11">
         <v>19</v>
@@ -1153,8 +1156,8 @@
         <v>257</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="18">
-        <v>3</v>
+      <c r="G27" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H27" s="11">
         <v>19</v>
@@ -1184,8 +1187,8 @@
         <v>253</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="18">
-        <v>3</v>
+      <c r="G28" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="11">
         <v>19</v>
@@ -1205,8 +1208,8 @@
         <v>254</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="18">
-        <v>3</v>
+      <c r="G29" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H29" s="11">
         <v>19</v>
@@ -1226,8 +1229,8 @@
         <v>249</v>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="18">
-        <v>3</v>
+      <c r="G30" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="11">
         <v>19</v>
